--- a/biology/Histoire de la zoologie et de la botanique/Alexander_Wetmore/Alexander_Wetmore.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alexander_Wetmore/Alexander_Wetmore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Alexander Wetmore est un paléontologue et un  ornithologue américain, né le 18 juin 1886 à North Freedom, Wisconsin et mort en 1978.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Nelson Franklin et d’Emma Amelia née Woodworth. Il obtient son Bachelor of Arts à l’université du Kansas en 1912, son Master of Sciences à l’université George-Washington puis son doctorat en zoologie en 1920. Il se marie avec Fay Holloway le 13 octobre 1912.
 De 1905 à 1908, il est assistant au muséum de l’université du Kansas. En 1909, il devient assistant au muséum du Colorado à Denver avant de reprendre son poste précédent en 1910. À partir de 1910, il travaille pour le bureau de recherches biologiques du ministère américain de l’agriculture avant d’entrer en 1924 au musée national d'histoire naturelle des États-Unis. Il en est le sixième secrétaire de 1945 à 1952 puis chercheur associé à partir de 1953. Wetmore reçoit un doctorat honoraire en sciences en 1946 de l’université du Wisconsin.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The Book of Birds (1932)
 A check-list of the fossil birds of North America (1940), Washington
@@ -580,7 +596,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ernst Mayr (1979). Alexander Wetmore, Ibis, 121 (4) : 519-520.</t>
         </is>
@@ -610,7 +628,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bo Beolens et Michael Watkins (2003). Whose Bird ? Common Bird Names and the People They Commemorate. Yale University Press (New Haven et Londres).
 Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
